--- a/dsdsdsd.xlsx
+++ b/dsdsdsd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cisco Projects\FINAL PROJECT 4th Year Cisco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cisco Projects\-FINAL-PROJECT-4th-Year-Cisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A03B8AB-3F87-4A70-8CAD-EBEE091C39CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E556684-B6D3-44A2-8A5E-E89678B7A308}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4E8643E4-CBB7-463F-8EA9-36CCCB13487F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1" xr2:uid="{4E8643E4-CBB7-463F-8EA9-36CCCB13487F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -820,16 +820,16 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="14.5" thickBot="1">
+    <row r="3" spans="3:10" ht="15" thickBot="1">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="14.5" thickBot="1">
+    <row r="4" spans="3:10" ht="15" thickBot="1">
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1019,13 +1019,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736BEAE2-95B5-4829-982D-129D41AE04BD}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="28">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -1147,7 +1147,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="28">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28">
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
         <v>53</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28">
+    <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
         <v>57</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28">
+    <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
         <v>60</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28">
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
         <v>63</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28">
+    <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
         <v>67</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28">
+    <row r="17" spans="1:5">
       <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
